--- a/outputs/Scenario_H-DRI.xlsx
+++ b/outputs/Scenario_H-DRI.xlsx
@@ -3748,16 +3748,16 @@
         <v>2041</v>
       </c>
       <c r="B93">
-        <v>12509.02749287651</v>
+        <v>12508.75707587485</v>
       </c>
       <c r="C93">
-        <v>23046.56166409167</v>
+        <v>23043.37529530603</v>
       </c>
       <c r="D93">
-        <v>2262.772199048049</v>
+        <v>2262.531516671727</v>
       </c>
       <c r="E93">
-        <v>10700.25058682096</v>
+        <v>10699.43498967269</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3765,16 +3765,16 @@
         <v>2042</v>
       </c>
       <c r="B94">
-        <v>12236.34521248281</v>
+        <v>12235.80437849516</v>
       </c>
       <c r="C94">
-        <v>22233.50687129389</v>
+        <v>22227.13413390722</v>
       </c>
       <c r="D94">
-        <v>2191.284202854671</v>
+        <v>2190.802838115971</v>
       </c>
       <c r="E94">
-        <v>10399.47284518622</v>
+        <v>10397.84165093693</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3782,16 +3782,16 @@
         <v>2043</v>
       </c>
       <c r="B95">
-        <v>11952.4216055908</v>
+        <v>11951.61035460147</v>
       </c>
       <c r="C95">
-        <v>21363.3648659102</v>
+        <v>21353.80575973789</v>
       </c>
       <c r="D95">
-        <v>2115.16775714299</v>
+        <v>2114.445710027968</v>
       </c>
       <c r="E95">
-        <v>10081.17271170356</v>
+        <v>10078.725920306</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3799,16 +3799,16 @@
         <v>2044</v>
       </c>
       <c r="B96">
-        <v>11657.65589221908</v>
+        <v>11656.57422424376</v>
       </c>
       <c r="C96">
-        <v>20430.89476921324</v>
+        <v>20418.14929443989</v>
       </c>
       <c r="D96">
-        <v>2034.068735548395</v>
+        <v>2033.106006070995</v>
       </c>
       <c r="E96">
-        <v>9744.392683985816</v>
+        <v>9741.130295487235</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3816,16 +3816,16 @@
         <v>2045</v>
       </c>
       <c r="B97">
-        <v>11351.95446582437</v>
+        <v>11350.60238084738</v>
       </c>
       <c r="C97">
-        <v>19430.14670688537</v>
+        <v>19414.21486332639</v>
       </c>
       <c r="D97">
-        <v>1947.55805887336</v>
+        <v>1946.354647019638</v>
       </c>
       <c r="E97">
-        <v>9387.796944990187</v>
+        <v>9383.718959343336</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3833,16 +3833,16 @@
         <v>2046</v>
       </c>
       <c r="B98">
-        <v>11034.61044480017</v>
+        <v>11032.98794282152</v>
       </c>
       <c r="C98">
-        <v>18354.32554519399</v>
+        <v>18335.20733284937</v>
       </c>
       <c r="D98">
-        <v>1855.116017069564</v>
+        <v>1853.67192283952</v>
       </c>
       <c r="E98">
-        <v>9009.586947451375</v>
+        <v>9004.693364656252</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3850,16 +3850,16 @@
         <v>2047</v>
       </c>
       <c r="B99">
-        <v>10704.29545937276</v>
+        <v>10702.40254034544</v>
       </c>
       <c r="C99">
-        <v>17195.62623095949</v>
+        <v>17173.32164927542</v>
       </c>
       <c r="D99">
-        <v>1756.120116579918</v>
+        <v>1754.43533993172</v>
       </c>
       <c r="E99">
-        <v>8607.461887764764</v>
+        <v>8601.752707679614</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3867,16 +3867,16 @@
         <v>2048</v>
       </c>
       <c r="B100">
-        <v>10359.12916641404</v>
+        <v>10356.96583049473</v>
       </c>
       <c r="C100">
-        <v>15945.02785308421</v>
+        <v>15919.53690390673</v>
       </c>
       <c r="D100">
-        <v>1649.833827340293</v>
+        <v>1647.908368413383</v>
       </c>
       <c r="E100">
-        <v>8178.605570135093</v>
+        <v>8172.080793232439</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3884,16 +3884,16 @@
         <v>2049</v>
       </c>
       <c r="B101">
-        <v>9996.763185195636</v>
+        <v>9994.329432227663</v>
       </c>
       <c r="C101">
-        <v>14592.05397748816</v>
+        <v>14563.37665897123</v>
       </c>
       <c r="D101">
-        <v>1535.393637057135</v>
+        <v>1533.22749571207</v>
       </c>
       <c r="E101">
-        <v>7719.672500911547</v>
+        <v>7712.332126718866</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3901,16 +3901,16 @@
         <v>2050</v>
       </c>
       <c r="B102">
-        <v>9614.448642655365</v>
+        <v>9611.744472638729</v>
       </c>
       <c r="C102">
-        <v>13124.46204076043</v>
+        <v>13092.59835290404</v>
       </c>
       <c r="D102">
-        <v>1411.790234046405</v>
+        <v>1409.383410283185</v>
       </c>
       <c r="E102">
-        <v>7226.751106678419</v>
+        <v>7218.595135195706</v>
       </c>
     </row>
   </sheetData>
@@ -6320,25 +6320,25 @@
         <v>2041</v>
       </c>
       <c r="B93">
-        <v>8474.816183970132</v>
+        <v>8474.422460011754</v>
       </c>
       <c r="C93">
-        <v>5272.28586908769</v>
+        <v>5271.967427695259</v>
       </c>
       <c r="D93">
-        <v>2858.045029882534</v>
+        <v>2857.778030230362</v>
       </c>
       <c r="E93">
-        <v>1170.702800643252</v>
+        <v>1170.550353975731</v>
       </c>
       <c r="F93">
-        <v>9888.95301300244</v>
+        <v>9887.909986945491</v>
       </c>
       <c r="G93">
-        <v>2358.532876703071</v>
+        <v>2358.261777500235</v>
       </c>
       <c r="H93">
-        <v>1863.703667362131</v>
+        <v>1863.49374679723</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -6346,25 +6346,25 @@
         <v>2042</v>
       </c>
       <c r="B94">
-        <v>8265.745789159493</v>
+        <v>8264.958341265547</v>
       </c>
       <c r="C94">
-        <v>5133.726232776419</v>
+        <v>5133.089350010006</v>
       </c>
       <c r="D94">
-        <v>2772.026514334913</v>
+        <v>2771.492515046039</v>
       </c>
       <c r="E94">
-        <v>1130.489581505191</v>
+        <v>1130.18468817898</v>
       </c>
       <c r="F94">
-        <v>9577.550057475692</v>
+        <v>9575.464005422225</v>
       </c>
       <c r="G94">
-        <v>2281.681417704318</v>
+        <v>2281.13921931435</v>
       </c>
       <c r="H94">
-        <v>1803.472997902074</v>
+        <v>1803.053156784433</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -6372,25 +6372,25 @@
         <v>2043</v>
       </c>
       <c r="B95">
-        <v>8046.210705255565</v>
+        <v>8045.029533403241</v>
       </c>
       <c r="C95">
-        <v>4987.66176748391</v>
+        <v>4986.706443325066</v>
       </c>
       <c r="D95">
-        <v>2680.662612923652</v>
+        <v>2679.861613982605</v>
       </c>
       <c r="E95">
-        <v>1087.503853585202</v>
+        <v>1087.04651359147</v>
       </c>
       <c r="F95">
-        <v>9246.038876260965</v>
+        <v>9242.909798150553</v>
       </c>
       <c r="G95">
-        <v>2199.731864035919</v>
+        <v>2198.918566443114</v>
       </c>
       <c r="H95">
-        <v>1739.272034750382</v>
+        <v>1738.64227306784</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -6398,25 +6398,25 @@
         <v>2044</v>
       </c>
       <c r="B96">
-        <v>7816.013372206708</v>
+        <v>7814.438476418816</v>
       </c>
       <c r="C96">
-        <v>4833.806158796442</v>
+        <v>4832.532393263617</v>
       </c>
       <c r="D96">
-        <v>2583.588297261051</v>
+        <v>2582.520298683301</v>
       </c>
       <c r="E96">
-        <v>1041.500320048281</v>
+        <v>1040.89053339586</v>
       </c>
       <c r="F96">
-        <v>8892.891454698722</v>
+        <v>8888.719350591791</v>
       </c>
       <c r="G96">
-        <v>2112.270124111153</v>
+        <v>2111.185727331217</v>
       </c>
       <c r="H96">
-        <v>1670.783126429561</v>
+        <v>1669.943444194279</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -6424,25 +6424,25 @@
         <v>2045</v>
       </c>
       <c r="B97">
-        <v>7574.637925076286</v>
+        <v>7572.669305330018</v>
       </c>
       <c r="C97">
-        <v>4671.680511735417</v>
+        <v>4670.08830481016</v>
       </c>
       <c r="D97">
-        <v>2480.341129284921</v>
+        <v>2479.006131055</v>
       </c>
       <c r="E97">
-        <v>992.1969722860802</v>
+        <v>991.4347389661378</v>
       </c>
       <c r="F97">
-        <v>8516.25155993207</v>
+        <v>8511.036429768195</v>
       </c>
       <c r="G97">
-        <v>2018.80547907076</v>
+        <v>2017.449983087988</v>
       </c>
       <c r="H97">
-        <v>1597.627752511914</v>
+        <v>1596.57814971173</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -6450,25 +6450,25 @@
         <v>2046</v>
       </c>
       <c r="B98">
-        <v>7321.175298161486</v>
+        <v>7318.812954456841</v>
       </c>
       <c r="C98">
-        <v>4500.569099004924</v>
+        <v>4498.658450687237</v>
       </c>
       <c r="D98">
-        <v>2370.340279908104</v>
+        <v>2368.73828202601</v>
       </c>
       <c r="E98">
-        <v>939.2678681926611</v>
+        <v>938.3531882051972</v>
       </c>
       <c r="F98">
-        <v>8113.865942399885</v>
+        <v>8107.607786179061</v>
       </c>
       <c r="G98">
-        <v>1918.754885873441</v>
+        <v>1917.128290687831</v>
       </c>
       <c r="H98">
-        <v>1519.353982943746</v>
+        <v>1518.094459578662</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -6476,25 +6476,25 @@
         <v>2047</v>
       </c>
       <c r="B99">
-        <v>7054.305950635528</v>
+        <v>7051.549882904073</v>
       </c>
       <c r="C99">
-        <v>4319.504525922825</v>
+        <v>4317.27543615736</v>
       </c>
       <c r="D99">
-        <v>2252.873237430802</v>
+        <v>2251.004239850129</v>
       </c>
       <c r="E99">
-        <v>882.335291435353</v>
+        <v>881.2681647538716</v>
       </c>
       <c r="F99">
-        <v>7683.03171611746</v>
+        <v>7675.730533658401</v>
       </c>
       <c r="G99">
-        <v>1811.429184982203</v>
+        <v>1809.531490546638</v>
       </c>
       <c r="H99">
-        <v>1435.425818653853</v>
+        <v>1433.956374687381</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -6502,25 +6502,25 @@
         <v>2048</v>
       </c>
       <c r="B100">
-        <v>6772.320805046757</v>
+        <v>6769.171013516599</v>
       </c>
       <c r="C100">
-        <v>4127.27162377536</v>
+        <v>4124.724092746609</v>
       </c>
       <c r="D100">
-        <v>2127.086191514801</v>
+        <v>2124.950194390238</v>
       </c>
       <c r="E100">
-        <v>820.9604598393097</v>
+        <v>819.7408865521317</v>
       </c>
       <c r="F100">
-        <v>7220.548276290849</v>
+        <v>7212.204068197845</v>
       </c>
       <c r="G100">
-        <v>1696.018857352355</v>
+        <v>1693.850063823898</v>
       </c>
       <c r="H100">
-        <v>1345.212471192222</v>
+        <v>1343.533106745982</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -6528,25 +6528,25 @@
         <v>2049</v>
       </c>
       <c r="B101">
-        <v>6473.147234011713</v>
+        <v>6469.603718454742</v>
       </c>
       <c r="C101">
-        <v>3922.412835078398</v>
+        <v>3919.546862601867</v>
       </c>
       <c r="D101">
-        <v>1991.973109030721</v>
+        <v>1989.570112207581</v>
       </c>
       <c r="E101">
-        <v>754.6327316700199</v>
+        <v>753.2607116888242</v>
       </c>
       <c r="F101">
-        <v>6722.662017169097</v>
+        <v>6713.274782837861</v>
       </c>
       <c r="G101">
-        <v>1571.577563272187</v>
+        <v>1569.137670493773</v>
       </c>
       <c r="H101">
-        <v>1247.975986068981</v>
+        <v>1246.086701021354</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -6554,25 +6554,25 @@
         <v>2050</v>
       </c>
       <c r="B102">
-        <v>6154.360751667545</v>
+        <v>6150.423512083767</v>
       </c>
       <c r="C102">
-        <v>3703.223591564454</v>
+        <v>3700.039177640145</v>
       </c>
       <c r="D102">
-        <v>1846.35795464527</v>
+        <v>1843.68795812355</v>
       </c>
       <c r="E102">
-        <v>682.7553509492682</v>
+        <v>681.2308842740543</v>
       </c>
       <c r="F102">
-        <v>6184.985523793069</v>
+        <v>6174.555263223598</v>
       </c>
       <c r="G102">
-        <v>1436.999254648119</v>
+        <v>1434.288262619748</v>
       </c>
       <c r="H102">
-        <v>1142.853853042517</v>
+        <v>1140.754647393502</v>
       </c>
     </row>
   </sheetData>
@@ -10420,25 +10420,25 @@
         <v>2041</v>
       </c>
       <c r="B93">
-        <v>8474.816183970132</v>
+        <v>8474.422460011754</v>
       </c>
       <c r="C93">
-        <v>5272.28586908769</v>
+        <v>5271.967427695259</v>
       </c>
       <c r="D93">
-        <v>1586.788328225281</v>
+        <v>1586.640089856999</v>
       </c>
       <c r="E93">
-        <v>1141.10726014577</v>
+        <v>1140.958667352622</v>
       </c>
       <c r="F93">
-        <v>5800.144083289096</v>
+        <v>5799.532319697442</v>
       </c>
       <c r="G93">
-        <v>1131.406990845779</v>
+        <v>1131.276942400692</v>
       </c>
       <c r="H93">
-        <v>2695.082355061681</v>
+        <v>2694.778791131247</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -10446,25 +10446,25 @@
         <v>2042</v>
       </c>
       <c r="B94">
-        <v>8265.745789159493</v>
+        <v>8264.958341265547</v>
       </c>
       <c r="C94">
-        <v>5133.726232776419</v>
+        <v>5133.089350010006</v>
       </c>
       <c r="D94">
-        <v>1539.030796396667</v>
+        <v>1538.734319668691</v>
       </c>
       <c r="E94">
-        <v>1101.910637153956</v>
+        <v>1101.613451576269</v>
       </c>
       <c r="F94">
-        <v>5617.49764866226</v>
+        <v>5616.274121514397</v>
       </c>
       <c r="G94">
-        <v>1094.540734357792</v>
+        <v>1094.280637475151</v>
       </c>
       <c r="H94">
-        <v>2607.983414742962</v>
+        <v>2607.376286899679</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -10472,25 +10472,25 @@
         <v>2043</v>
       </c>
       <c r="B95">
-        <v>8046.210705255565</v>
+        <v>8045.029533403241</v>
       </c>
       <c r="C95">
-        <v>4987.66176748391</v>
+        <v>4986.706443325066</v>
       </c>
       <c r="D95">
-        <v>1488.305503105373</v>
+        <v>1487.860788009115</v>
       </c>
       <c r="E95">
-        <v>1060.011594813579</v>
+        <v>1059.565816442744</v>
       </c>
       <c r="F95">
-        <v>5423.057184263393</v>
+        <v>5421.221893523878</v>
       </c>
       <c r="G95">
-        <v>1055.228881284653</v>
+        <v>1054.838735956925</v>
       </c>
       <c r="H95">
-        <v>2515.143074297107</v>
+        <v>2514.232382523389</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -10498,25 +10498,25 @@
         <v>2044</v>
       </c>
       <c r="B96">
-        <v>7816.013372206708</v>
+        <v>7814.438476418816</v>
       </c>
       <c r="C96">
-        <v>4833.806158796442</v>
+        <v>4832.532393263617</v>
       </c>
       <c r="D96">
-        <v>1434.409784369898</v>
+        <v>1433.816830913946</v>
       </c>
       <c r="E96">
-        <v>1015.171037430017</v>
+        <v>1014.576666274643</v>
       </c>
       <c r="F96">
-        <v>5215.92646728963</v>
+        <v>5213.479412993905</v>
       </c>
       <c r="G96">
-        <v>1013.272788596752</v>
+        <v>1012.752594831472</v>
       </c>
       <c r="H96">
-        <v>2416.10198124923</v>
+        <v>2414.887725562665</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -10524,25 +10524,25 @@
         <v>2045</v>
       </c>
       <c r="B97">
-        <v>7574.637925076286</v>
+        <v>7572.669305330018</v>
       </c>
       <c r="C97">
-        <v>4671.680511735417</v>
+        <v>4670.08830481016</v>
       </c>
       <c r="D97">
-        <v>1377.086894298578</v>
+        <v>1376.345702474345</v>
       </c>
       <c r="E97">
-        <v>967.1140856143843</v>
+        <v>966.3711216658627</v>
       </c>
       <c r="F97">
-        <v>4995.016765899699</v>
+        <v>4991.957948012324</v>
       </c>
       <c r="G97">
-        <v>968.4370545520183</v>
+        <v>967.7868123416508</v>
       </c>
       <c r="H97">
-        <v>2310.312761173031</v>
+        <v>2308.794941556031</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -10550,25 +10550,25 @@
         <v>2046</v>
       </c>
       <c r="B98">
-        <v>7321.175298161486</v>
+        <v>7318.812954456841</v>
       </c>
       <c r="C98">
-        <v>4500.569099004924</v>
+        <v>4498.658450687237</v>
       </c>
       <c r="D98">
-        <v>1316.014356231123</v>
+        <v>1315.124926038608</v>
       </c>
       <c r="E98">
-        <v>915.5230371255402</v>
+        <v>914.6314803838704</v>
       </c>
       <c r="F98">
-        <v>4759.006486989361</v>
+        <v>4755.335905510332</v>
       </c>
       <c r="G98">
-        <v>920.4419887635141</v>
+        <v>919.6616981080591</v>
       </c>
       <c r="H98">
-        <v>2197.121882750865</v>
+        <v>2195.30049920343</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -10576,25 +10576,25 @@
         <v>2047</v>
       </c>
       <c r="B99">
-        <v>7054.305950635528</v>
+        <v>7051.549882904073</v>
       </c>
       <c r="C99">
-        <v>4319.504525922825</v>
+        <v>4317.27543615736</v>
       </c>
       <c r="D99">
-        <v>1250.796583241106</v>
+        <v>1249.758914654543</v>
       </c>
       <c r="E99">
-        <v>860.0297243557454</v>
+        <v>858.9895747951015</v>
       </c>
       <c r="F99">
-        <v>4506.31031327261</v>
+        <v>4502.027968095599</v>
       </c>
       <c r="G99">
-        <v>868.9569959168119</v>
+        <v>868.0466567936662</v>
       </c>
       <c r="H99">
-        <v>2075.754243339304</v>
+        <v>2073.629295808672</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -10602,25 +10602,25 @@
         <v>2048</v>
       </c>
       <c r="B100">
-        <v>6772.320805046757</v>
+        <v>6769.171013516599</v>
       </c>
       <c r="C100">
-        <v>4127.27162377536</v>
+        <v>4124.724092746609</v>
       </c>
       <c r="D100">
-        <v>1180.959539312638</v>
+        <v>1179.77363241791</v>
       </c>
       <c r="E100">
-        <v>800.2064576086362</v>
+        <v>799.0177153151062</v>
       </c>
       <c r="F100">
-        <v>4235.051001634414</v>
+        <v>4230.156893113854</v>
       </c>
       <c r="G100">
-        <v>813.593743283785</v>
+        <v>812.5533557682936</v>
       </c>
       <c r="H100">
-        <v>1945.297666366948</v>
+        <v>1942.869155028993</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -10628,25 +10628,25 @@
         <v>2049</v>
       </c>
       <c r="B101">
-        <v>6473.147234011713</v>
+        <v>6469.603718454742</v>
       </c>
       <c r="C101">
-        <v>3922.412835078398</v>
+        <v>3919.546862601867</v>
       </c>
       <c r="D101">
-        <v>1105.944674244158</v>
+        <v>1104.610528955384</v>
       </c>
       <c r="E101">
-        <v>735.5555042485138</v>
+        <v>734.2181691360094</v>
       </c>
       <c r="F101">
-        <v>3943.026958624104</v>
+        <v>3937.521086405561</v>
       </c>
       <c r="G101">
-        <v>753.8982641734791</v>
+        <v>752.7278281902969</v>
       </c>
       <c r="H101">
-        <v>1804.685003574487</v>
+        <v>1801.952928253335</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -10654,25 +10654,25 @@
         <v>2050</v>
       </c>
       <c r="B102">
-        <v>6154.360751667545</v>
+        <v>6150.423512083767</v>
       </c>
       <c r="C102">
-        <v>3703.223591564454</v>
+        <v>3700.039177640145</v>
       </c>
       <c r="D102">
-        <v>1025.099052507732</v>
+        <v>1023.61666882491</v>
       </c>
       <c r="E102">
-        <v>665.4951943768325</v>
+        <v>664.0092664453532</v>
       </c>
       <c r="F102">
-        <v>3627.664844184069</v>
+        <v>3621.547208267543</v>
       </c>
       <c r="G102">
-        <v>689.3399785131514</v>
+        <v>688.0394940622781</v>
       </c>
       <c r="H102">
-        <v>1652.668987934475</v>
+        <v>1649.633348630125</v>
       </c>
     </row>
   </sheetData>
@@ -13108,25 +13108,25 @@
         <v>2042</v>
       </c>
       <c r="B94">
-        <v>11023.23975575318</v>
+        <v>11023.23956224469</v>
       </c>
       <c r="C94">
-        <v>9589.63380042967</v>
+        <v>9589.633726077385</v>
       </c>
       <c r="D94">
-        <v>2598.584699475072</v>
+        <v>2598.584082160837</v>
       </c>
       <c r="E94">
-        <v>1822.107790148062</v>
+        <v>1822.106012394992</v>
       </c>
       <c r="F94">
-        <v>8512.64040363859</v>
+        <v>8512.640225830843</v>
       </c>
       <c r="G94">
-        <v>2505.362561799915</v>
+        <v>2505.362506403851</v>
       </c>
       <c r="H94">
-        <v>3776.503772283073</v>
+        <v>3776.503651667854</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -13134,25 +13134,25 @@
         <v>2043</v>
       </c>
       <c r="B95">
-        <v>10973.47941242186</v>
+        <v>10973.47859354655</v>
       </c>
       <c r="C95">
-        <v>9521.870086981455</v>
+        <v>9521.869728068319</v>
       </c>
       <c r="D95">
-        <v>2535.282667481139</v>
+        <v>2535.280154032443</v>
       </c>
       <c r="E95">
-        <v>1773.528009536777</v>
+        <v>1773.521512470027</v>
       </c>
       <c r="F95">
-        <v>8298.076154855229</v>
+        <v>8298.074861531222</v>
       </c>
       <c r="G95">
-        <v>2478.62887925006</v>
+        <v>2478.62862735153</v>
       </c>
       <c r="H95">
-        <v>3664.83925171542</v>
+        <v>3664.838328980768</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -13160,25 +13160,25 @@
         <v>2044</v>
       </c>
       <c r="B96">
-        <v>10926.77449982528</v>
+        <v>10926.77236555706</v>
       </c>
       <c r="C96">
-        <v>9448.385433366633</v>
+        <v>9448.384404072935</v>
       </c>
       <c r="D96">
-        <v>2472.35733051706</v>
+        <v>2472.35097701739</v>
       </c>
       <c r="E96">
-        <v>1725.180315118443</v>
+        <v>1725.165205977638</v>
       </c>
       <c r="F96">
-        <v>8078.382634683008</v>
+        <v>8078.377751139508</v>
       </c>
       <c r="G96">
-        <v>2450.26819469109</v>
+        <v>2450.267502716364</v>
       </c>
       <c r="H96">
-        <v>3559.55445981605</v>
+        <v>3559.550864501044</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -13186,25 +13186,25 @@
         <v>2045</v>
       </c>
       <c r="B97">
-        <v>10882.7909413348</v>
+        <v>10882.78653051713</v>
       </c>
       <c r="C97">
-        <v>9369.472375090794</v>
+        <v>9369.470082318076</v>
       </c>
       <c r="D97">
-        <v>2409.897112188491</v>
+        <v>2409.884322825473</v>
       </c>
       <c r="E97">
-        <v>1677.080134766792</v>
+        <v>1677.051729919487</v>
       </c>
       <c r="F97">
-        <v>7858.509739072935</v>
+        <v>7858.496358553397</v>
       </c>
       <c r="G97">
-        <v>2420.374922588351</v>
+        <v>2420.373432200035</v>
       </c>
       <c r="H97">
-        <v>3459.529643396223</v>
+        <v>3459.519571067681</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -13212,25 +13212,25 @@
         <v>2046</v>
       </c>
       <c r="B98">
-        <v>10841.15346332731</v>
+        <v>10841.14553453486</v>
       </c>
       <c r="C98">
-        <v>9285.414996178482</v>
+        <v>9285.410612894881</v>
       </c>
       <c r="D98">
-        <v>2347.956358687192</v>
+        <v>2347.9339118609</v>
       </c>
       <c r="E98">
-        <v>1629.204887279353</v>
+        <v>1629.157852059155</v>
       </c>
       <c r="F98">
-        <v>7641.778683385546</v>
+        <v>7641.748513479582</v>
       </c>
       <c r="G98">
-        <v>2389.041119116524</v>
+        <v>2389.038347578547</v>
       </c>
       <c r="H98">
-        <v>3363.40836058064</v>
+        <v>3363.385278513065</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -13238,25 +13238,25 @@
         <v>2047</v>
       </c>
       <c r="B99">
-        <v>10801.45140914742</v>
+        <v>10801.43843420054</v>
       </c>
       <c r="C99">
-        <v>9196.48678385528</v>
+        <v>9196.47922617211</v>
       </c>
       <c r="D99">
-        <v>2286.554308535012</v>
+        <v>2286.518393919533</v>
       </c>
       <c r="E99">
-        <v>1581.496199484527</v>
+        <v>1581.424676444378</v>
       </c>
       <c r="F99">
-        <v>7429.836587931287</v>
+        <v>7429.777006618363</v>
       </c>
       <c r="G99">
-        <v>2356.355610198249</v>
+        <v>2356.350942680501</v>
       </c>
       <c r="H99">
-        <v>3269.730043225008</v>
+        <v>3269.68393433784</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -13264,25 +13264,25 @@
         <v>2048</v>
       </c>
       <c r="B100">
-        <v>10763.24414956654</v>
+        <v>10763.22430911768</v>
       </c>
       <c r="C100">
-        <v>9102.948604100437</v>
+        <v>9102.93651144095</v>
       </c>
       <c r="D100">
-        <v>2225.674432026413</v>
+        <v>2225.620697055012</v>
       </c>
       <c r="E100">
-        <v>1533.861493198076</v>
+        <v>1533.759221611448</v>
       </c>
       <c r="F100">
-        <v>7222.902688307667</v>
+        <v>7222.795892835326</v>
       </c>
       <c r="G100">
-        <v>2322.403155151527</v>
+        <v>2322.39583861654</v>
       </c>
       <c r="H100">
-        <v>3177.105585584695</v>
+        <v>3177.022342384884</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -13290,25 +13290,25 @@
         <v>2049</v>
       </c>
       <c r="B101">
-        <v>10726.06598447914</v>
+        <v>10726.03716534015</v>
       </c>
       <c r="C101">
-        <v>9005.046726812707</v>
+        <v>9005.028444829022</v>
       </c>
       <c r="D101">
-        <v>2165.264037371016</v>
+        <v>2165.187641680502</v>
       </c>
       <c r="E101">
-        <v>1486.175118359618</v>
+        <v>1486.035545662362</v>
       </c>
       <c r="F101">
-        <v>7020.161843371412</v>
+        <v>7019.984189218881</v>
       </c>
       <c r="G101">
-        <v>2287.263619745589</v>
+        <v>2287.252758218946</v>
       </c>
       <c r="H101">
-        <v>3084.37160054698</v>
+        <v>3084.232697500158</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -13316,25 +13316,25 @@
         <v>2050</v>
       </c>
       <c r="B102">
-        <v>10689.43047197304</v>
+        <v>10689.39026597411</v>
       </c>
       <c r="C102">
-        <v>8903.010855166485</v>
+        <v>8902.984421215235</v>
       </c>
       <c r="D102">
-        <v>2105.234048084178</v>
+        <v>2105.129724415828</v>
       </c>
       <c r="E102">
-        <v>1438.279048959819</v>
+        <v>1438.095433997429</v>
       </c>
       <c r="F102">
-        <v>6820.180906906766</v>
+        <v>6819.902541151311</v>
       </c>
       <c r="G102">
-        <v>2251.011141688422</v>
+        <v>2250.995692794184</v>
       </c>
       <c r="H102">
-        <v>2990.669781698386</v>
+        <v>2990.452351179956</v>
       </c>
     </row>
   </sheetData>
@@ -15744,25 +15744,25 @@
         <v>2041</v>
       </c>
       <c r="B93">
-        <v>462852.8933908697</v>
+        <v>462852.4996669113</v>
       </c>
       <c r="C93">
-        <v>295425.7463630516</v>
+        <v>295425.4279216591</v>
       </c>
       <c r="D93">
-        <v>39814.49807682056</v>
+        <v>39814.34983845228</v>
       </c>
       <c r="E93">
-        <v>24849.66139214622</v>
+        <v>24849.51279935308</v>
       </c>
       <c r="F93">
-        <v>102829.941622742</v>
+        <v>102829.3298591503</v>
       </c>
       <c r="G93">
-        <v>70320.93156607106</v>
+        <v>70320.80151762597</v>
       </c>
       <c r="H93">
-        <v>39594.49617025431</v>
+        <v>39594.19260632387</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -15770,25 +15770,25 @@
         <v>2042</v>
       </c>
       <c r="B94">
-        <v>460095.399424276</v>
+        <v>460094.2184459322</v>
       </c>
       <c r="C94">
-        <v>290969.8387953984</v>
+        <v>290968.8835455918</v>
       </c>
       <c r="D94">
-        <v>38754.94417374215</v>
+        <v>38754.50007596013</v>
       </c>
       <c r="E94">
-        <v>24129.46423915212</v>
+        <v>24129.02023853435</v>
       </c>
       <c r="F94">
-        <v>99934.79886776565</v>
+        <v>99932.96375483388</v>
       </c>
       <c r="G94">
-        <v>68910.10973862893</v>
+        <v>68909.71964869727</v>
       </c>
       <c r="H94">
-        <v>38425.9758127142</v>
+        <v>38425.0652415557</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -15796,25 +15796,25 @@
         <v>2043</v>
       </c>
       <c r="B95">
-        <v>457168.1307171097</v>
+        <v>457165.7693857889</v>
       </c>
       <c r="C95">
-        <v>286435.6304759008</v>
+        <v>286433.7202608485</v>
       </c>
       <c r="D95">
-        <v>37707.96700936639</v>
+        <v>37707.0807099368</v>
       </c>
       <c r="E95">
-        <v>23415.94782442892</v>
+        <v>23415.06454250707</v>
       </c>
       <c r="F95">
-        <v>97059.77989717382</v>
+        <v>97056.11078682654</v>
       </c>
       <c r="G95">
-        <v>67486.70974066353</v>
+        <v>67485.92975730267</v>
       </c>
       <c r="H95">
-        <v>37276.27963529588</v>
+        <v>37274.45929509832</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -15822,25 +15822,25 @@
         <v>2044</v>
       </c>
       <c r="B96">
-        <v>454057.3695894911</v>
+        <v>454053.4354966506</v>
       </c>
       <c r="C96">
-        <v>281821.0512013306</v>
+        <v>281817.8682500392</v>
       </c>
       <c r="D96">
-        <v>36670.01946321923</v>
+        <v>36668.54656383336</v>
       </c>
       <c r="E96">
-        <v>22705.93854674049</v>
+        <v>22704.47600280408</v>
       </c>
       <c r="F96">
-        <v>94197.32372978044</v>
+        <v>94191.21244868093</v>
       </c>
       <c r="G96">
-        <v>66049.71433456919</v>
+        <v>66048.41484941778</v>
       </c>
       <c r="H96">
-        <v>36132.82715672906</v>
+        <v>36129.79615615994</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -15848,25 +15848,25 @@
         <v>2045</v>
       </c>
       <c r="B97">
-        <v>450749.2165732326</v>
+        <v>450743.3182714635</v>
       </c>
       <c r="C97">
-        <v>277123.2593379752</v>
+        <v>277118.4864725313</v>
       </c>
       <c r="D97">
-        <v>35637.20924532932</v>
+        <v>35635.00794348223</v>
       </c>
       <c r="E97">
-        <v>21995.97249758808</v>
+        <v>21993.79539455045</v>
       </c>
       <c r="F97">
-        <v>91333.8307566072</v>
+        <v>91324.67403813986</v>
       </c>
       <c r="G97">
-        <v>64597.77646653286</v>
+        <v>64595.8282295594</v>
       </c>
       <c r="H97">
-        <v>34983.61027450587</v>
+        <v>34979.07152664829</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -15874,25 +15874,25 @@
         <v>2046</v>
       </c>
       <c r="B98">
-        <v>447229.2384080668</v>
+        <v>447220.9856913855</v>
       </c>
       <c r="C98">
-        <v>272338.4134408017</v>
+        <v>272331.7343103237</v>
       </c>
       <c r="D98">
-        <v>34605.26724287325</v>
+        <v>34602.19895765994</v>
       </c>
       <c r="E98">
-        <v>21282.29064743427</v>
+        <v>21279.26902287517</v>
       </c>
       <c r="F98">
-        <v>88451.05856021102</v>
+        <v>88438.26143017061</v>
       </c>
       <c r="G98">
-        <v>63129.17733617985</v>
+        <v>63126.45158008891</v>
       </c>
       <c r="H98">
-        <v>33817.3237966761</v>
+        <v>33810.98674733866</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -15900,25 +15900,25 @@
         <v>2047</v>
       </c>
       <c r="B99">
-        <v>443482.0929495549</v>
+        <v>443471.097140089</v>
       </c>
       <c r="C99">
-        <v>267461.4311828692</v>
+        <v>267452.530520309</v>
       </c>
       <c r="D99">
-        <v>33569.50951757934</v>
+        <v>33565.43947839495</v>
       </c>
       <c r="E99">
-        <v>20560.82417230549</v>
+        <v>20556.83392122589</v>
       </c>
       <c r="F99">
-        <v>85527.53228555234</v>
+        <v>85510.51239164785</v>
       </c>
       <c r="G99">
-        <v>61641.77872189841</v>
+        <v>61638.14729420207</v>
       </c>
       <c r="H99">
-        <v>32623.3479967904</v>
+        <v>32614.93210880949</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -15926,25 +15926,25 @@
         <v>2048</v>
       </c>
       <c r="B100">
-        <v>439491.1696050351</v>
+        <v>439477.0438444879</v>
       </c>
       <c r="C100">
-        <v>262485.7542025441</v>
+        <v>262474.3181016147</v>
       </c>
       <c r="D100">
-        <v>32524.79462486556</v>
+        <v>32519.59241375784</v>
       </c>
       <c r="E100">
-        <v>19827.16913671605</v>
+        <v>19822.09241492955</v>
       </c>
       <c r="F100">
-        <v>82539.68059887909</v>
+        <v>82517.87339192638</v>
       </c>
       <c r="G100">
-        <v>60132.96931003067</v>
+        <v>60128.30481135382</v>
       </c>
       <c r="H100">
-        <v>31391.54007757265</v>
+        <v>31380.7789214536</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -15952,25 +15952,25 @@
         <v>2049</v>
       </c>
       <c r="B101">
-        <v>435238.2508545677</v>
+        <v>435220.6103976025</v>
       </c>
       <c r="C101">
-        <v>257403.1203108098</v>
+        <v>257388.8365193875</v>
       </c>
       <c r="D101">
-        <v>31465.47526173871</v>
+        <v>31459.01530103273</v>
       </c>
       <c r="E101">
-        <v>19076.54952260495</v>
+        <v>19070.2750384032</v>
       </c>
       <c r="F101">
-        <v>79462.54571413177</v>
+        <v>79435.41028911306</v>
       </c>
       <c r="G101">
-        <v>58599.60395445856</v>
+        <v>58593.77988132517</v>
       </c>
       <c r="H101">
-        <v>30111.85348060016</v>
+        <v>30098.49915220678</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -15978,25 +15978,25 @@
         <v>2050</v>
       </c>
       <c r="B102">
-        <v>430703.1811342622</v>
+        <v>430681.6436437122</v>
       </c>
       <c r="C102">
-        <v>252203.3330472078</v>
+        <v>252185.8912758124</v>
       </c>
       <c r="D102">
-        <v>30385.34026616226</v>
+        <v>30377.50224544181</v>
       </c>
       <c r="E102">
-        <v>18303.76566802196</v>
+        <v>18296.18887085112</v>
       </c>
       <c r="F102">
-        <v>76270.02965140907</v>
+        <v>76237.05495622929</v>
       </c>
       <c r="G102">
-        <v>57037.93279128329</v>
+        <v>57030.82368259327</v>
       </c>
       <c r="H102">
-        <v>28773.85268683625</v>
+        <v>28757.68014965695</v>
       </c>
     </row>
   </sheetData>
@@ -17305,7 +17305,7 @@
         <v>13714.12822704402</v>
       </c>
       <c r="C93">
-        <v>4093.120205626513</v>
+        <v>4092.679485024303</v>
       </c>
       <c r="D93">
         <v>615.6385017820494</v>
@@ -17316,10 +17316,10 @@
         <v>2042</v>
       </c>
       <c r="B94">
-        <v>13500.82244985524</v>
+        <v>13500.82126240331</v>
       </c>
       <c r="C94">
-        <v>3963.187410228795</v>
+        <v>3962.305969049907</v>
       </c>
       <c r="D94">
         <v>603.7563683816235</v>
@@ -17330,10 +17330,10 @@
         <v>2043</v>
       </c>
       <c r="B95">
-        <v>13285.1706094952</v>
+        <v>13285.16564302562</v>
       </c>
       <c r="C95">
-        <v>3824.809817688359</v>
+        <v>3823.487655907262</v>
       </c>
       <c r="D95">
         <v>591.5010814057324</v>
@@ -17344,10 +17344,10 @@
         <v>2044</v>
       </c>
       <c r="B96">
-        <v>13069.25228609144</v>
+        <v>13069.23906993754</v>
       </c>
       <c r="C96">
-        <v>3677.334953281028</v>
+        <v>3675.572070923254</v>
       </c>
       <c r="D96">
         <v>578.9218770957576</v>
@@ -17358,10 +17358,10 @@
         <v>2045</v>
       </c>
       <c r="B97">
-        <v>12854.55068916007</v>
+        <v>12854.52230406631</v>
       </c>
       <c r="C97">
-        <v>3519.97515649038</v>
+        <v>3517.771553530396</v>
       </c>
       <c r="D97">
         <v>566.0427518178059</v>
@@ -17372,10 +17372,10 @@
         <v>2046</v>
       </c>
       <c r="B98">
-        <v>12641.79948596332</v>
+        <v>12641.74595583296</v>
       </c>
       <c r="C98">
-        <v>3351.779391597562</v>
+        <v>3349.135068035367</v>
       </c>
       <c r="D98">
         <v>552.8561100834453</v>
@@ -17386,10 +17386,10 @@
         <v>2047</v>
       </c>
       <c r="B99">
-        <v>12431.01745364788</v>
+        <v>12430.9251588667</v>
       </c>
       <c r="C99">
-        <v>3171.610967126546</v>
+        <v>3168.52592288554</v>
       </c>
       <c r="D99">
         <v>539.3231006332654</v>
@@ -17400,10 +17400,10 @@
         <v>2048</v>
       </c>
       <c r="B100">
-        <v>12221.66898542621</v>
+        <v>12221.52017133607</v>
       </c>
       <c r="C100">
-        <v>2978.12651543937</v>
+        <v>2974.600750774889</v>
       </c>
       <c r="D100">
         <v>525.3786912986159</v>
@@ -17414,10 +17414,10 @@
         <v>2049</v>
       </c>
       <c r="B101">
-        <v>12012.87168785197</v>
+        <v>12012.64415301003</v>
       </c>
       <c r="C101">
-        <v>2769.751790342041</v>
+        <v>2765.785304998748</v>
       </c>
       <c r="D101">
         <v>510.9377521140231</v>
@@ -17428,10 +17428,10 @@
         <v>2050</v>
       </c>
       <c r="B102">
-        <v>11803.5838545002</v>
+        <v>11803.25090455399</v>
       </c>
       <c r="C102">
-        <v>2544.646762761174</v>
+        <v>2540.23955673907</v>
       </c>
       <c r="D102">
         <v>495.9005334792005</v>
